--- a/jyx2/excel/JYX2人物.xlsx
+++ b/jyx2/excel/JYX2人物.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jyqxz-rematser\svn\trunk\jyx2\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A1338C-53D6-4E02-98EC-FE63A9789ADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57F154-AE1C-43FF-A05E-25F1D36EA66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4428" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="257">
   <si>
     <t>代号</t>
   </si>
@@ -1056,12 +1056,16 @@
     <t>蟒牯朱蛤</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>离场对话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1106,6 +1110,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1141,13 +1151,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1498,15 +1509,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CE321"/>
+  <dimension ref="A1:CF321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM46" workbookViewId="0">
-      <selection activeCell="BD80" sqref="BD80"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BO1" sqref="F1:BO1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="66" width="9" customWidth="1"/>
+    <col min="67" max="74" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="79" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="83" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,8 +1774,11 @@
       <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="CF1" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2008,7 +2029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2258,8 +2279,11 @@
       <c r="CE3" s="1">
         <v>10</v>
       </c>
+      <c r="CF3">
+        <v>950</v>
+      </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2509,8 +2533,11 @@
       <c r="CE4" s="1">
         <v>5</v>
       </c>
+      <c r="CF4">
+        <v>952</v>
+      </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2761,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3012,7 +3039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3263,7 +3290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3514,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3765,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4016,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4266,8 +4293,11 @@
       <c r="CE11" s="1">
         <v>1</v>
       </c>
+      <c r="CF11">
+        <v>954</v>
+      </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4518,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4769,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5020,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5271,7 +5301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5522,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5773,7 +5803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6023,8 +6053,11 @@
       <c r="CE18" s="1">
         <v>10</v>
       </c>
+      <c r="CF18">
+        <v>956</v>
+      </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6274,8 +6307,11 @@
       <c r="CE19" s="1">
         <v>10</v>
       </c>
+      <c r="CF19">
+        <v>958</v>
+      </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6526,7 +6562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6777,7 +6813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -7028,7 +7064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7279,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7530,7 +7566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7781,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8032,7 +8068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8282,8 +8318,11 @@
       <c r="CE27" s="1">
         <v>10</v>
       </c>
+      <c r="CF27">
+        <v>960</v>
+      </c>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8534,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8785,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9035,8 +9074,11 @@
       <c r="CE30" s="1">
         <v>20</v>
       </c>
+      <c r="CF30">
+        <v>962</v>
+      </c>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9286,8 +9328,11 @@
       <c r="CE31" s="1">
         <v>0</v>
       </c>
+      <c r="CF31">
+        <v>964</v>
+      </c>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9538,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9789,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -10040,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10291,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10542,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10792,8 +10837,11 @@
       <c r="CE37" s="1">
         <v>0</v>
       </c>
+      <c r="CF37">
+        <v>966</v>
+      </c>
     </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11043,8 +11091,11 @@
       <c r="CE38" s="1">
         <v>0</v>
       </c>
+      <c r="CF38">
+        <v>968</v>
+      </c>
     </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11294,8 +11345,11 @@
       <c r="CE39" s="1">
         <v>1</v>
       </c>
+      <c r="CF39">
+        <v>970</v>
+      </c>
     </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11546,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11797,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12048,7 +12102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12299,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12550,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12801,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -13051,8 +13105,11 @@
       <c r="CE46" s="1">
         <v>0</v>
       </c>
+      <c r="CF46">
+        <v>974</v>
+      </c>
     </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13302,8 +13359,11 @@
       <c r="CE47" s="1">
         <v>5</v>
       </c>
+      <c r="CF47">
+        <v>976</v>
+      </c>
     </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13554,7 +13614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13804,8 +13864,11 @@
       <c r="CE49" s="1">
         <v>0</v>
       </c>
+      <c r="CF49">
+        <v>978</v>
+      </c>
     </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -14055,8 +14118,11 @@
       <c r="CE50" s="1">
         <v>0</v>
       </c>
+      <c r="CF50">
+        <v>980</v>
+      </c>
     </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -14306,8 +14372,11 @@
       <c r="CE51" s="1">
         <v>0</v>
       </c>
+      <c r="CF51">
+        <v>982</v>
+      </c>
     </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -14558,7 +14627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -14808,8 +14877,11 @@
       <c r="CE53" s="1">
         <v>3</v>
       </c>
+      <c r="CF53">
+        <v>984</v>
+      </c>
     </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -15060,7 +15132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -15310,8 +15382,11 @@
       <c r="CE55" s="1">
         <v>0</v>
       </c>
+      <c r="CF55">
+        <v>986</v>
+      </c>
     </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -15561,8 +15636,11 @@
       <c r="CE56" s="1">
         <v>10</v>
       </c>
+      <c r="CF56">
+        <v>988</v>
+      </c>
     </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -15813,7 +15891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -16064,7 +16142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -16315,7 +16393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -16565,8 +16643,11 @@
       <c r="CE60" s="1">
         <v>0</v>
       </c>
+      <c r="CF60">
+        <v>990</v>
+      </c>
     </row>
-    <row r="61" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -16816,8 +16897,11 @@
       <c r="CE61" s="1">
         <v>0</v>
       </c>
+      <c r="CF61">
+        <v>992</v>
+      </c>
     </row>
-    <row r="62" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -17068,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -17318,8 +17402,11 @@
       <c r="CE63" s="1">
         <v>0</v>
       </c>
+      <c r="CF63">
+        <v>994</v>
+      </c>
     </row>
-    <row r="64" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -17570,7 +17657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -17820,8 +17907,11 @@
       <c r="CE65" s="1">
         <v>0</v>
       </c>
+      <c r="CF65">
+        <v>996</v>
+      </c>
     </row>
-    <row r="66" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -18072,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -18323,7 +18413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -18574,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -18825,7 +18915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -19076,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -19327,7 +19417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -19578,7 +19668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -19829,7 +19919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -20080,7 +20170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -20331,7 +20421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -20582,7 +20672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -20833,7 +20923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -21083,8 +21173,11 @@
       <c r="CE78" s="1">
         <v>0</v>
       </c>
+      <c r="CF78">
+        <v>998</v>
+      </c>
     </row>
-    <row r="79" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -21335,7 +21428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:83" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:84" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -21586,7 +21679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -21837,7 +21930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -22088,7 +22181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -22339,7 +22432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -22590,7 +22683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -22841,7 +22934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -23092,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -23343,7 +23436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -23594,7 +23687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -23845,7 +23938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -24096,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -24347,7 +24440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -24598,7 +24691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -24849,7 +24942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -25100,7 +25193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -25351,7 +25444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -25602,7 +25695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -25853,7 +25946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -26104,7 +26197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -26355,7 +26448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -26606,7 +26699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -26857,7 +26950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -27108,7 +27201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -27359,7 +27452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -27610,7 +27703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -27861,7 +27954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -28112,7 +28205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -28363,7 +28456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -28614,7 +28707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -28865,7 +28958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -29116,7 +29209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -29367,7 +29460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -29618,7 +29711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -29869,7 +29962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -30120,7 +30213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -30371,7 +30464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -30622,7 +30715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -30873,7 +30966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -31124,7 +31217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -31375,7 +31468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -31626,7 +31719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -31877,7 +31970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -32128,7 +32221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -32379,7 +32472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -32630,7 +32723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -32881,7 +32974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -33132,7 +33225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -33383,7 +33476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -33634,7 +33727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -33885,7 +33978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -34136,7 +34229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -34387,7 +34480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -34638,7 +34731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -34889,7 +34982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -35140,7 +35233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -35391,7 +35484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -35642,7 +35735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -35893,7 +35986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -36144,7 +36237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -36395,7 +36488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -36646,7 +36739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -36897,7 +36990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -37148,7 +37241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -37399,7 +37492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -37650,7 +37743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -37901,7 +37994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -38152,7 +38245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -38403,7 +38496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -38654,7 +38747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -38905,7 +38998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -39156,7 +39249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -39407,7 +39500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -39658,7 +39751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -39909,7 +40002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -40160,7 +40253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -40411,7 +40504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -40662,7 +40755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -40913,7 +41006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -41164,7 +41257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -41415,7 +41508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -41666,7 +41759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -41917,7 +42010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -42168,7 +42261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -42419,7 +42512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -42670,7 +42763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -42921,7 +43014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -43172,7 +43265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -43423,7 +43516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -43674,7 +43767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -43925,7 +44018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -44176,7 +44269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -44427,7 +44520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -44678,7 +44771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -44929,7 +45022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -45180,7 +45273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -45431,7 +45524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -45682,7 +45775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -45933,7 +46026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -46184,7 +46277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -46435,7 +46528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -46686,7 +46779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -46937,7 +47030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -47188,7 +47281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -47439,7 +47532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -47690,7 +47783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -47941,7 +48034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -48192,7 +48285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -48443,7 +48536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -48694,7 +48787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -48945,7 +49038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -49196,7 +49289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -49447,7 +49540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -49698,7 +49791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -49949,7 +50042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -50200,7 +50293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -50451,7 +50544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -50702,7 +50795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -50953,7 +51046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -51204,7 +51297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -51455,7 +51548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -51706,7 +51799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -51957,7 +52050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -52208,7 +52301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -52459,7 +52552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -52710,7 +52803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -52961,7 +53054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -53212,7 +53305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -53463,7 +53556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -53714,7 +53807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -53965,7 +54058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -54216,7 +54309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -54467,7 +54560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -54718,7 +54811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -54969,7 +55062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -55220,7 +55313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -55471,7 +55564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -55722,7 +55815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -55973,7 +56066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -56224,7 +56317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -56475,7 +56568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -56726,7 +56819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -56977,7 +57070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -57228,7 +57321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -57479,7 +57572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -57730,7 +57823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -57981,7 +58074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -58232,7 +58325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -58483,7 +58576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -58734,7 +58827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -58985,7 +59078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -59236,7 +59329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -59487,7 +59580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -59738,7 +59831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -59989,7 +60082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -60240,7 +60333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -60491,7 +60584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -60742,7 +60835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -60993,7 +61086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -61244,7 +61337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -61495,7 +61588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -61746,7 +61839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -61997,7 +62090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -62248,7 +62341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -62499,7 +62592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -62750,7 +62843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -63001,7 +63094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -63252,7 +63345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -63503,7 +63596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -63754,7 +63847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -64005,7 +64098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -64256,7 +64349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -64507,7 +64600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -64758,7 +64851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -65009,7 +65102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -65260,7 +65353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -65511,7 +65604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -65762,7 +65855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -66013,7 +66106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -66264,7 +66357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -66515,7 +66608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -66766,7 +66859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -67017,7 +67110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -67268,7 +67361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -67519,7 +67612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -67770,7 +67863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -68021,7 +68114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -68272,7 +68365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -68523,7 +68616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -68774,7 +68867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -69025,7 +69118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -69276,7 +69369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -69527,7 +69620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -69778,7 +69871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -70029,7 +70122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -70280,7 +70373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -70531,7 +70624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -70782,7 +70875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -71033,7 +71126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -71284,7 +71377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -71535,7 +71628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -71786,7 +71879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -72037,7 +72130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -72288,7 +72381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -72539,7 +72632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -72790,7 +72883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -73041,7 +73134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -73292,7 +73385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -73543,7 +73636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -73794,7 +73887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -74045,7 +74138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -74296,7 +74389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -74547,7 +74640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -74798,7 +74891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -75049,7 +75142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -75300,7 +75393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -75551,7 +75644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -75802,7 +75895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -76053,7 +76146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -76304,7 +76397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -76555,7 +76648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -76806,7 +76899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -77057,7 +77150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -77308,7 +77401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -77559,7 +77652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -77810,7 +77903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -78061,7 +78154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -78312,7 +78405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -78563,7 +78656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -78814,7 +78907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -79065,7 +79158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -79316,7 +79409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -79567,7 +79660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -79818,7 +79911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -80069,7 +80162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -80320,7 +80413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -80571,7 +80664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -80822,7 +80915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -81073,7 +81166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -81324,7 +81417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -81575,7 +81668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -81826,7 +81919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -82080,5 +82173,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/excel/JYX2人物.xlsx
+++ b/jyx2/excel/JYX2人物.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57F154-AE1C-43FF-A05E-25F1D36EA66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F357EE0-0403-4132-9652-04DC40BA6AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BO1" sqref="F1:BO1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -21684,7 +21684,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -21935,7 +21935,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>

--- a/jyx2/excel/JYX2人物.xlsx
+++ b/jyx2/excel/JYX2人物.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F357EE0-0403-4132-9652-04DC40BA6AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C0E00-5A1F-4CF2-AE8C-FC3168541FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="CF41" sqref="CF41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11599,6 +11599,9 @@
       <c r="CE40" s="1">
         <v>0</v>
       </c>
+      <c r="CF40" s="1">
+        <v>972</v>
+      </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A41" s="1">

--- a/jyx2/excel/JYX2人物.xlsx
+++ b/jyx2/excel/JYX2人物.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C0E00-5A1F-4CF2-AE8C-FC3168541FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28680" windowHeight="13660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256">
   <si>
     <t>代号</t>
   </si>
@@ -74,210 +68,330 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>出招动画帧数</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>出招动画帧数</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>出招动画帧数</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>出招动画帧数</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>出招动画帧数</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>出招动画延迟</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>出招动画延迟</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>出招动画延迟</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>出招动画延迟</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>出招动画延迟</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>武功音效延迟</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>武功音效延迟</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>武功音效延迟</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>武功音效延迟</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>武功音效延迟</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -436,19 +550,73 @@
     <t>携带物品4数量</t>
   </si>
   <si>
+    <t>离场对话</t>
+  </si>
+  <si>
+    <t>小虾米</t>
+  </si>
+  <si>
     <t>天下奇男子</t>
   </si>
   <si>
     <t>胡斐</t>
   </si>
   <si>
+    <t>雪山飞狐</t>
+  </si>
+  <si>
+    <t>程灵素</t>
+  </si>
+  <si>
+    <t>毒手药王</t>
+  </si>
+  <si>
+    <t>苗人凤</t>
+  </si>
+  <si>
     <t>金面佛</t>
+  </si>
+  <si>
+    <t>阎基</t>
+  </si>
+  <si>
+    <t>江南恶霸</t>
+  </si>
+  <si>
+    <t>张三丰</t>
+  </si>
+  <si>
+    <t>武当掌门</t>
+  </si>
+  <si>
+    <t>灭绝</t>
+  </si>
+  <si>
+    <t>峨嵋掌门</t>
+  </si>
+  <si>
+    <t>何太冲</t>
+  </si>
+  <si>
+    <t>昆仑掌门</t>
   </si>
   <si>
     <t>唐文亮</t>
   </si>
   <si>
+    <t>崆峒掌门</t>
+  </si>
+  <si>
+    <t>张无忌</t>
+  </si>
+  <si>
+    <t>范遥</t>
+  </si>
+  <si>
     <t>光明右使</t>
+  </si>
+  <si>
+    <t>杨逍</t>
   </si>
   <si>
     <t>光明左使</t>
@@ -457,22 +625,82 @@
     <t>殷天正</t>
   </si>
   <si>
+    <t>白眉鹰王</t>
+  </si>
+  <si>
+    <t>谢逊</t>
+  </si>
+  <si>
+    <t>金毛狮王</t>
+  </si>
+  <si>
+    <t>韦一笑</t>
+  </si>
+  <si>
     <t>青翼蝠王</t>
   </si>
   <si>
     <t>金花婆婆</t>
   </si>
   <si>
+    <t>紫衫龙王</t>
+  </si>
+  <si>
     <t>胡青牛</t>
+  </si>
+  <si>
+    <t>蝶谷医仙</t>
+  </si>
+  <si>
+    <t>王难姑</t>
   </si>
   <si>
     <t>毒仙</t>
   </si>
   <si>
+    <t>成昆</t>
+  </si>
+  <si>
+    <t>混元霹雳手</t>
+  </si>
+  <si>
     <t>岳不群</t>
   </si>
   <si>
+    <t>君子剑</t>
+  </si>
+  <si>
     <t>莫大</t>
+  </si>
+  <si>
+    <t>夜雨萧湘</t>
+  </si>
+  <si>
+    <t>定闲</t>
+  </si>
+  <si>
+    <t>恒山掌门</t>
+  </si>
+  <si>
+    <t>左冷禅</t>
+  </si>
+  <si>
+    <t>嵩山掌门</t>
+  </si>
+  <si>
+    <t>天门</t>
+  </si>
+  <si>
+    <t>泰山掌门</t>
+  </si>
+  <si>
+    <t>余沧海</t>
+  </si>
+  <si>
+    <t>青城派掌门</t>
+  </si>
+  <si>
+    <t>蓝凤凰</t>
   </si>
   <si>
     <t>五毒教主</t>
@@ -484,10 +712,22 @@
     <t>任老怪</t>
   </si>
   <si>
+    <t>东方不败</t>
+  </si>
+  <si>
     <t>平一指</t>
   </si>
   <si>
+    <t>杀人名医</t>
+  </si>
+  <si>
     <t>田伯光</t>
+  </si>
+  <si>
+    <t>风清扬</t>
+  </si>
+  <si>
+    <t>风老前辈</t>
   </si>
   <si>
     <t>丹青生</t>
@@ -496,10 +736,28 @@
     <t>江南四友</t>
   </si>
   <si>
+    <t>秃笔翁</t>
+  </si>
+  <si>
     <t>黑白子</t>
   </si>
   <si>
+    <t>黄钟公</t>
+  </si>
+  <si>
+    <t>令狐冲</t>
+  </si>
+  <si>
+    <t>华山首徒</t>
+  </si>
+  <si>
     <t>林平之</t>
+  </si>
+  <si>
+    <t>林少镳头</t>
+  </si>
+  <si>
+    <t>狄云</t>
   </si>
   <si>
     <t>天下苦命人</t>
@@ -508,10 +766,46 @@
     <t>石破天</t>
   </si>
   <si>
+    <t>狗杂种</t>
+  </si>
+  <si>
+    <t>龙岛主</t>
+  </si>
+  <si>
+    <t>侠客岛主</t>
+  </si>
+  <si>
+    <t>木岛主</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>赏善使者</t>
+  </si>
+  <si>
     <t>李四</t>
   </si>
   <si>
+    <t>罚恶使者</t>
+  </si>
+  <si>
+    <t>白万剑</t>
+  </si>
+  <si>
+    <t>雪山派掌门</t>
+  </si>
+  <si>
     <t>岳老三</t>
+  </si>
+  <si>
+    <t>南海鳄神</t>
+  </si>
+  <si>
+    <t>薛慕华</t>
+  </si>
+  <si>
+    <t>阎王敌</t>
   </si>
   <si>
     <t>丁春秋</t>
@@ -529,10 +823,34 @@
     <t>游坦之</t>
   </si>
   <si>
+    <t>铁头人</t>
+  </si>
+  <si>
+    <t>虚竹</t>
+  </si>
+  <si>
     <t>小和尚</t>
   </si>
   <si>
+    <t>乔峰</t>
+  </si>
+  <si>
+    <t>北乔峰</t>
+  </si>
+  <si>
+    <t>慕容复</t>
+  </si>
+  <si>
     <t>南慕容</t>
+  </si>
+  <si>
+    <t>苏星河</t>
+  </si>
+  <si>
+    <t>聋哑老人</t>
+  </si>
+  <si>
+    <t>段誉</t>
   </si>
   <si>
     <t>大理王子</t>
@@ -541,19 +859,64 @@
     <t>袁承志</t>
   </si>
   <si>
+    <t>金蛇传人</t>
+  </si>
+  <si>
     <t>郭靖</t>
+  </si>
+  <si>
+    <t>北侠</t>
+  </si>
+  <si>
+    <t>黄蓉</t>
+  </si>
+  <si>
+    <t>前丐帮帮主</t>
+  </si>
+  <si>
+    <t>黄药师</t>
+  </si>
+  <si>
+    <t>东邪</t>
+  </si>
+  <si>
+    <t>杨过</t>
+  </si>
+  <si>
+    <t>神鵰大侠</t>
+  </si>
+  <si>
+    <t>小龙女</t>
+  </si>
+  <si>
+    <t>欧阳锋</t>
   </si>
   <si>
     <t>西毒</t>
   </si>
   <si>
+    <t>欧阳克</t>
+  </si>
+  <si>
     <t>白陀山少主</t>
+  </si>
+  <si>
+    <t>金轮法王</t>
   </si>
   <si>
     <t>程英</t>
   </si>
   <si>
+    <t>东邪弟子</t>
+  </si>
+  <si>
     <t>周伯通</t>
+  </si>
+  <si>
+    <t>老顽童</t>
+  </si>
+  <si>
+    <t>一灯</t>
   </si>
   <si>
     <t>南帝</t>
@@ -568,6 +931,15 @@
     <t>裘千仞</t>
   </si>
   <si>
+    <t>铁掌帮主</t>
+  </si>
+  <si>
+    <t>丘处机</t>
+  </si>
+  <si>
+    <t>长春子</t>
+  </si>
+  <si>
     <t>洪七公</t>
   </si>
   <si>
@@ -577,10 +949,22 @@
     <t>玄慈</t>
   </si>
   <si>
+    <t>少林掌门</t>
+  </si>
+  <si>
     <t>洪教主</t>
   </si>
   <si>
+    <t>神龙教主</t>
+  </si>
+  <si>
     <t>孔八拉</t>
+  </si>
+  <si>
+    <t>零捌陆</t>
+  </si>
+  <si>
+    <t>南贤</t>
   </si>
   <si>
     <t>智者</t>
@@ -589,7 +973,16 @@
     <t>北丑</t>
   </si>
   <si>
+    <t>戏子</t>
+  </si>
+  <si>
+    <t>厨师</t>
+  </si>
+  <si>
     <t>旺旺</t>
+  </si>
+  <si>
+    <t>王语嫣</t>
   </si>
   <si>
     <t>神仙姊姊</t>
@@ -604,6 +997,12 @@
     <t>少林弟子</t>
   </si>
   <si>
+    <t>昆仑弟子</t>
+  </si>
+  <si>
+    <t>神龙教徒</t>
+  </si>
+  <si>
     <t>大雪怪</t>
   </si>
   <si>
@@ -613,13 +1012,22 @@
     <t>沙漠妖姬</t>
   </si>
   <si>
+    <t>武当弟子</t>
+  </si>
+  <si>
     <t>峨嵋弟子</t>
   </si>
   <si>
     <t>崆峒弟子</t>
   </si>
   <si>
+    <t>华山弟子</t>
+  </si>
+  <si>
     <t>衡山弟子</t>
+  </si>
+  <si>
+    <t>恒山弟子</t>
   </si>
   <si>
     <t>嵩山弟子</t>
@@ -643,429 +1051,35 @@
     <t>番僧</t>
   </si>
   <si>
+    <t>星宿门人</t>
+  </si>
+  <si>
+    <t>丐帮弟子</t>
+  </si>
+  <si>
+    <t>铁掌帮众</t>
+  </si>
+  <si>
     <t>全真教徒</t>
   </si>
   <si>
     <t>明教弟子</t>
   </si>
   <si>
-    <t>小虾米</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪山飞狐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>程灵素</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒手药王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗人凤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎基</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>江南恶霸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三丰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当掌门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>灭绝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨嵋掌门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>何太冲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑掌门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>崆峒掌门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张无忌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>范遥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨逍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>白眉鹰王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢逊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金毛狮王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>韦一笑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫衫龙王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝶谷医仙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>王难姑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>成昆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>混元霹雳手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>君子剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜雨萧湘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>定闲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒山掌门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>左冷禅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵩山掌门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>天门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰山掌门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>余沧海</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>青城派掌门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝凤凰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方不败</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀人名医</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>风清扬</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>风老前辈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>秃笔翁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄钟公</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>令狐冲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山首徒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>林少镳头</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狄云</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗杂种</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙岛主</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠客岛主</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>木岛主</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>赏善使者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>罚恶使者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>白万剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪山派掌门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>南海鳄神</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛慕华</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎王敌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁头人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚竹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔峰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>北乔峰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>慕容复</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏星河</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>聋哑老人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>段誉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蛇传人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>北侠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄蓉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前丐帮帮主</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄药师</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>东邪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神鵰大侠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龙女</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳锋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳克</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金轮法王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>东邪弟子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>老顽童</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁掌帮主</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘处机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>长春子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林掌门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙教主</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>零捌陆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>南贤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>戏子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨师</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>王语嫣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑弟子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙教徒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒山弟子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>星宿门人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁掌帮众</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>大鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蟒牯朱蛤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>离场对话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1073,22 +1087,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1098,15 +1099,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1114,6 +1109,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1125,7 +1134,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -1134,20 +1150,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,28 +1186,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="普通 3" xfId="5"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="普通" xfId="7"/>
+    <cellStyle name="普通 2" xfId="8"/>
+    <cellStyle name="普通 4" xfId="9"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1226,71 +1252,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1475,7 +1501,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1493,7 +1518,9 @@
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -1508,23 +1535,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:CF321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CF41" sqref="CF41"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BF15" sqref="BF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="66" width="9" customWidth="1"/>
-    <col min="67" max="74" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="79" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="83" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="67" max="74" width="14.2166666666667" customWidth="1"/>
+    <col min="75" max="75" width="15.3333333333333" customWidth="1"/>
+    <col min="76" max="79" width="10.1083333333333" customWidth="1"/>
+    <col min="80" max="83" width="14.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1774,11 +1802,11 @@
       <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="4" t="s">
-        <v>256</v>
+      <c r="CF1" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1792,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -2029,7 +2057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:84">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2043,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2283,7 +2311,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2297,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2537,7 +2565,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2551,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2788,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2802,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -3039,7 +3067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3053,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -3290,7 +3318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3304,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -3541,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3555,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -3792,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3806,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -4043,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4057,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -4297,7 +4325,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4311,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -4548,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4562,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -4799,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4813,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5050,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5064,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5220,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="BE15" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BF15" s="1">
         <v>0</v>
@@ -5301,7 +5329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5315,10 +5343,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5552,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5566,10 +5594,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5803,7 +5831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:84">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5817,10 +5845,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -6057,7 +6085,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:84">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6071,10 +6099,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -6311,7 +6339,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6325,10 +6353,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -6562,7 +6590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6576,10 +6604,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -6813,7 +6841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6827,10 +6855,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -7064,7 +7092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:83">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7078,10 +7106,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -7315,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:83">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7329,10 +7357,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -7566,7 +7594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7580,10 +7608,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -7817,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7831,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -8068,7 +8096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:84">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8082,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -8322,7 +8350,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8336,10 +8364,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -8573,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8587,10 +8615,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -8824,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:84">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8838,10 +8866,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -9078,7 +9106,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:84">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9092,10 +9120,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -9332,7 +9360,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9346,10 +9374,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -9583,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9597,10 +9625,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -9834,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:83">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9848,10 +9876,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -10085,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:83">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10099,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -10336,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:83">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10350,10 +10378,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -10587,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:84">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10601,10 +10629,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -10841,7 +10869,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:84">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10855,10 +10883,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
@@ -11095,7 +11123,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:84">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11109,10 +11137,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -11349,7 +11377,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:84">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11363,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -11603,7 +11631,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11617,10 +11645,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -11854,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11868,10 +11896,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -12105,7 +12133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:83">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12119,10 +12147,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -12356,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:83">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12370,10 +12398,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -12607,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12621,10 +12649,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -12858,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:84">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -12872,10 +12900,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -13112,7 +13140,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="47" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:84">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13126,10 +13154,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -13366,7 +13394,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="48" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:83">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13380,10 +13408,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -13617,7 +13645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:84">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13631,10 +13659,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -13871,7 +13899,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13885,10 +13913,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -14125,7 +14153,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -14139,10 +14167,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -14379,7 +14407,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:83">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -14393,10 +14421,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -14630,7 +14658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -14644,10 +14672,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -14884,7 +14912,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:83">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -14898,10 +14926,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -15135,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -15149,10 +15177,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -15389,7 +15417,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="56" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:84">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -15403,10 +15431,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -15643,7 +15671,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="57" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:83">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -15657,10 +15685,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -15894,7 +15922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:83">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -15908,10 +15936,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -16145,7 +16173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:83">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -16159,10 +16187,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -16396,7 +16424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:84">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -16410,10 +16438,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -16650,7 +16678,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="61" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:84">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -16664,10 +16692,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -16904,7 +16932,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="62" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:83">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -16918,10 +16946,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -17155,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:84">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -17169,10 +17197,10 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -17409,7 +17437,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="64" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:83">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -17423,10 +17451,10 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -17660,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:84">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -17674,10 +17702,10 @@
         <v>80</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -17914,7 +17942,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="66" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:83">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -17928,10 +17956,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -18165,7 +18193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:83">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -18179,10 +18207,10 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -18416,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:83">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -18430,10 +18458,10 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -18667,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:83">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -18681,10 +18709,10 @@
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -18918,7 +18946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:83">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -18932,10 +18960,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -19169,7 +19197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:83">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -19183,10 +19211,10 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -19420,7 +19448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:83">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -19434,10 +19462,10 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -19671,7 +19699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:83">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -19685,10 +19713,10 @@
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -19922,7 +19950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:83">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -19936,10 +19964,10 @@
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -20173,7 +20201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:83">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -20187,10 +20215,10 @@
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -20424,7 +20452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:83">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -20438,10 +20466,10 @@
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
@@ -20675,7 +20703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:83">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -20689,10 +20717,10 @@
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="G77" s="1">
         <v>0</v>
@@ -20926,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:84">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -20940,10 +20968,10 @@
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="G78" s="1">
         <v>1</v>
@@ -21180,7 +21208,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="79" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:83">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -21194,10 +21222,10 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>
@@ -21431,7 +21459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:84" ht="15" x14ac:dyDescent="0.35">
+    <row r="80" ht="16.5" spans="1:83">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -21444,11 +21472,11 @@
       <c r="D80" s="1">
         <v>0</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>255</v>
+      <c r="E80" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
@@ -21682,7 +21710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:83">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -21696,10 +21724,10 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
@@ -21933,7 +21961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:83">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -21947,10 +21975,10 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
@@ -22184,7 +22212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:83">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -22198,10 +22226,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
@@ -22435,7 +22463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:83">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -22449,10 +22477,10 @@
         <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G84" s="1">
         <v>0</v>
@@ -22686,7 +22714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:83">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -22700,10 +22728,10 @@
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G85" s="1">
         <v>0</v>
@@ -22937,7 +22965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:83">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -22951,10 +22979,10 @@
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
@@ -23188,7 +23216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:83">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -23202,10 +23230,10 @@
         <v>0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
@@ -23439,7 +23467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:83">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -23453,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G88" s="1">
         <v>0</v>
@@ -23690,7 +23718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:83">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -23704,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G89" s="1">
         <v>0</v>
@@ -23941,7 +23969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:83">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -23955,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G90" s="1">
         <v>0</v>
@@ -24192,7 +24220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:83">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -24206,10 +24234,10 @@
         <v>0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G91" s="1">
         <v>0</v>
@@ -24443,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:83">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -24457,10 +24485,10 @@
         <v>0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G92" s="1">
         <v>0</v>
@@ -24694,7 +24722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:83">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -24708,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G93" s="1">
         <v>0</v>
@@ -24945,7 +24973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:83">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -24959,10 +24987,10 @@
         <v>0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G94" s="1">
         <v>0</v>
@@ -25196,7 +25224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:83">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -25210,10 +25238,10 @@
         <v>0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
@@ -25447,7 +25475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:83">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -25461,10 +25489,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
@@ -25698,7 +25726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:83">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -25712,10 +25740,10 @@
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
@@ -25949,7 +25977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:83">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -25963,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
@@ -26200,7 +26228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:83">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -26214,10 +26242,10 @@
         <v>0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G99" s="1">
         <v>0</v>
@@ -26451,7 +26479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:83">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -26465,10 +26493,10 @@
         <v>0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
@@ -26702,7 +26730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:83">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -26716,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G101" s="1">
         <v>0</v>
@@ -26953,7 +26981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:83">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -26967,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G102" s="1">
         <v>0</v>
@@ -27204,7 +27232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:83">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -27218,10 +27246,10 @@
         <v>0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G103" s="1">
         <v>0</v>
@@ -27455,7 +27483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:83">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -27469,10 +27497,10 @@
         <v>0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G104" s="1">
         <v>0</v>
@@ -27706,7 +27734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:83">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -27720,10 +27748,10 @@
         <v>0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G105" s="1">
         <v>0</v>
@@ -27957,7 +27985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:83">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -27971,10 +27999,10 @@
         <v>0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G106" s="1">
         <v>0</v>
@@ -28208,7 +28236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:83">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -28222,10 +28250,10 @@
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G107" s="1">
         <v>0</v>
@@ -28459,7 +28487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:83">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -28473,10 +28501,10 @@
         <v>0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G108" s="1">
         <v>0</v>
@@ -28710,7 +28738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:83">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -28724,10 +28752,10 @@
         <v>0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G109" s="1">
         <v>0</v>
@@ -28961,7 +28989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:83">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -28975,10 +29003,10 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G110" s="1">
         <v>0</v>
@@ -29212,7 +29240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:83">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -29226,10 +29254,10 @@
         <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G111" s="1">
         <v>0</v>
@@ -29463,7 +29491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:83">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -29477,10 +29505,10 @@
         <v>0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G112" s="1">
         <v>0</v>
@@ -29714,7 +29742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:83">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -29728,10 +29756,10 @@
         <v>0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G113" s="1">
         <v>0</v>
@@ -29965,7 +29993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:83">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -29979,10 +30007,10 @@
         <v>0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G114" s="1">
         <v>0</v>
@@ -30216,7 +30244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:83">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -30230,10 +30258,10 @@
         <v>0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G115" s="1">
         <v>0</v>
@@ -30467,7 +30495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:83">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -30481,10 +30509,10 @@
         <v>0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G116" s="1">
         <v>0</v>
@@ -30718,7 +30746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:83">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -30732,10 +30760,10 @@
         <v>0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G117" s="1">
         <v>0</v>
@@ -30969,7 +30997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:83">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -30983,10 +31011,10 @@
         <v>0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G118" s="1">
         <v>0</v>
@@ -31220,7 +31248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:83">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -31234,10 +31262,10 @@
         <v>0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G119" s="1">
         <v>0</v>
@@ -31471,7 +31499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:83">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -31485,10 +31513,10 @@
         <v>0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G120" s="1">
         <v>0</v>
@@ -31722,7 +31750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:83">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -31736,10 +31764,10 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G121" s="1">
         <v>0</v>
@@ -31973,7 +32001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:83">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -31987,10 +32015,10 @@
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G122" s="1">
         <v>0</v>
@@ -32224,7 +32252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:83">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -32238,10 +32266,10 @@
         <v>0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="G123" s="1">
         <v>0</v>
@@ -32475,7 +32503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:83">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -32489,10 +32517,10 @@
         <v>0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="G124" s="1">
         <v>0</v>
@@ -32726,7 +32754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:83">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -32740,10 +32768,10 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="G125" s="1">
         <v>0</v>
@@ -32977,7 +33005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:83">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -32991,10 +33019,10 @@
         <v>0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="G126" s="1">
         <v>0</v>
@@ -33228,7 +33256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:83">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -33242,10 +33270,10 @@
         <v>0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="G127" s="1">
         <v>0</v>
@@ -33479,7 +33507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:83">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -33493,10 +33521,10 @@
         <v>0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="G128" s="1">
         <v>0</v>
@@ -33730,7 +33758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:83">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -33744,10 +33772,10 @@
         <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="G129" s="1">
         <v>0</v>
@@ -33981,7 +34009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:83">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -33995,10 +34023,10 @@
         <v>0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="G130" s="1">
         <v>0</v>
@@ -34232,7 +34260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:83">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -34246,10 +34274,10 @@
         <v>0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="G131" s="1">
         <v>0</v>
@@ -34483,7 +34511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:83">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -34497,10 +34525,10 @@
         <v>0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="G132" s="1">
         <v>0</v>
@@ -34734,7 +34762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:83">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -34748,10 +34776,10 @@
         <v>0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G133" s="1">
         <v>0</v>
@@ -34985,7 +35013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:83">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -34999,10 +35027,10 @@
         <v>0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G134" s="1">
         <v>0</v>
@@ -35236,7 +35264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:83">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -35250,10 +35278,10 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G135" s="1">
         <v>0</v>
@@ -35487,7 +35515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:83">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -35501,10 +35529,10 @@
         <v>0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G136" s="1">
         <v>0</v>
@@ -35738,7 +35766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:83">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -35752,10 +35780,10 @@
         <v>0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G137" s="1">
         <v>0</v>
@@ -35989,7 +36017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:83">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -36003,10 +36031,10 @@
         <v>0</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G138" s="1">
         <v>0</v>
@@ -36240,7 +36268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:83">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -36254,10 +36282,10 @@
         <v>0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G139" s="1">
         <v>0</v>
@@ -36491,7 +36519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:83">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -36505,10 +36533,10 @@
         <v>0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G140" s="1">
         <v>0</v>
@@ -36742,7 +36770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:83">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -36756,10 +36784,10 @@
         <v>0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G141" s="1">
         <v>0</v>
@@ -36993,7 +37021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:83">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -37007,10 +37035,10 @@
         <v>0</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G142" s="1">
         <v>0</v>
@@ -37244,7 +37272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:83">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -37258,10 +37286,10 @@
         <v>0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G143" s="1">
         <v>0</v>
@@ -37495,7 +37523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:83">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -37509,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G144" s="1">
         <v>0</v>
@@ -37746,7 +37774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:83">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -37760,10 +37788,10 @@
         <v>0</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G145" s="1">
         <v>0</v>
@@ -37997,7 +38025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:83">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -38011,10 +38039,10 @@
         <v>0</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G146" s="1">
         <v>0</v>
@@ -38248,7 +38276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:83">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -38262,10 +38290,10 @@
         <v>0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G147" s="1">
         <v>0</v>
@@ -38499,7 +38527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:83">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -38513,10 +38541,10 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G148" s="1">
         <v>0</v>
@@ -38750,7 +38778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:83">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -38764,10 +38792,10 @@
         <v>0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G149" s="1">
         <v>0</v>
@@ -39001,7 +39029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:83">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -39015,10 +39043,10 @@
         <v>0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G150" s="1">
         <v>0</v>
@@ -39252,7 +39280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:83">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -39266,10 +39294,10 @@
         <v>0</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G151" s="1">
         <v>0</v>
@@ -39503,7 +39531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:83">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -39517,10 +39545,10 @@
         <v>0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G152" s="1">
         <v>0</v>
@@ -39754,7 +39782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:83">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -39768,10 +39796,10 @@
         <v>0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G153" s="1">
         <v>0</v>
@@ -40005,7 +40033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:83">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -40019,10 +40047,10 @@
         <v>0</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G154" s="1">
         <v>0</v>
@@ -40256,7 +40284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:83">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -40270,10 +40298,10 @@
         <v>0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G155" s="1">
         <v>0</v>
@@ -40507,7 +40535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:83">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -40521,10 +40549,10 @@
         <v>0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G156" s="1">
         <v>0</v>
@@ -40758,7 +40786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:83">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -40772,10 +40800,10 @@
         <v>0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G157" s="1">
         <v>0</v>
@@ -41009,7 +41037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:83">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -41023,10 +41051,10 @@
         <v>0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G158" s="1">
         <v>0</v>
@@ -41260,7 +41288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:83">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -41274,10 +41302,10 @@
         <v>0</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G159" s="1">
         <v>0</v>
@@ -41511,7 +41539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:83">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -41525,10 +41553,10 @@
         <v>0</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G160" s="1">
         <v>0</v>
@@ -41762,7 +41790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:83">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -41776,10 +41804,10 @@
         <v>0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G161" s="1">
         <v>0</v>
@@ -42013,7 +42041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:83">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -42027,10 +42055,10 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G162" s="1">
         <v>0</v>
@@ -42264,7 +42292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:83">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -42278,10 +42306,10 @@
         <v>0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G163" s="1">
         <v>0</v>
@@ -42515,7 +42543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:83">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -42529,10 +42557,10 @@
         <v>0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G164" s="1">
         <v>0</v>
@@ -42766,7 +42794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:83">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -42780,10 +42808,10 @@
         <v>0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G165" s="1">
         <v>0</v>
@@ -43017,7 +43045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:83">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -43031,10 +43059,10 @@
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G166" s="1">
         <v>0</v>
@@ -43268,7 +43296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:83">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -43282,10 +43310,10 @@
         <v>0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G167" s="1">
         <v>0</v>
@@ -43519,7 +43547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:83">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -43533,10 +43561,10 @@
         <v>0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G168" s="1">
         <v>0</v>
@@ -43770,7 +43798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:83">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -43784,10 +43812,10 @@
         <v>0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G169" s="1">
         <v>0</v>
@@ -44021,7 +44049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:83">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -44035,10 +44063,10 @@
         <v>0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G170" s="1">
         <v>0</v>
@@ -44272,7 +44300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:83">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -44286,10 +44314,10 @@
         <v>0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G171" s="1">
         <v>0</v>
@@ -44523,7 +44551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:83">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -44537,10 +44565,10 @@
         <v>0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G172" s="1">
         <v>0</v>
@@ -44774,7 +44802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:83">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -44788,10 +44816,10 @@
         <v>0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="G173" s="1">
         <v>0</v>
@@ -45025,7 +45053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:83">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -45039,10 +45067,10 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="G174" s="1">
         <v>0</v>
@@ -45276,7 +45304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:83">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -45290,10 +45318,10 @@
         <v>0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="G175" s="1">
         <v>0</v>
@@ -45527,7 +45555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:83">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -45541,10 +45569,10 @@
         <v>0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="G176" s="1">
         <v>0</v>
@@ -45778,7 +45806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:83">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -45792,10 +45820,10 @@
         <v>0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="G177" s="1">
         <v>0</v>
@@ -46029,7 +46057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:83">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -46043,10 +46071,10 @@
         <v>0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="G178" s="1">
         <v>0</v>
@@ -46280,7 +46308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:83">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -46294,10 +46322,10 @@
         <v>0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="G179" s="1">
         <v>0</v>
@@ -46531,7 +46559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:83">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -46545,10 +46573,10 @@
         <v>0</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="G180" s="1">
         <v>0</v>
@@ -46782,7 +46810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:83">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -46796,10 +46824,10 @@
         <v>0</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="G181" s="1">
         <v>0</v>
@@ -47033,7 +47061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:83">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -47047,10 +47075,10 @@
         <v>0</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="G182" s="1">
         <v>0</v>
@@ -47284,7 +47312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:83">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -47298,10 +47326,10 @@
         <v>0</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G183" s="1">
         <v>0</v>
@@ -47535,7 +47563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:83">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -47549,10 +47577,10 @@
         <v>0</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G184" s="1">
         <v>0</v>
@@ -47786,7 +47814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:83">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -47800,10 +47828,10 @@
         <v>0</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G185" s="1">
         <v>0</v>
@@ -48037,7 +48065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:83">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -48051,10 +48079,10 @@
         <v>0</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G186" s="1">
         <v>0</v>
@@ -48288,7 +48316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:83">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -48302,10 +48330,10 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G187" s="1">
         <v>0</v>
@@ -48539,7 +48567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:83">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -48553,10 +48581,10 @@
         <v>0</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G188" s="1">
         <v>0</v>
@@ -48790,7 +48818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:83">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -48804,10 +48832,10 @@
         <v>0</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G189" s="1">
         <v>0</v>
@@ -49041,7 +49069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:83">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -49055,10 +49083,10 @@
         <v>0</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G190" s="1">
         <v>0</v>
@@ -49292,7 +49320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:83">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -49306,10 +49334,10 @@
         <v>0</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G191" s="1">
         <v>0</v>
@@ -49543,7 +49571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:83">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -49557,10 +49585,10 @@
         <v>0</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G192" s="1">
         <v>0</v>
@@ -49794,7 +49822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:83">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -49808,10 +49836,10 @@
         <v>0</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G193" s="1">
         <v>0</v>
@@ -50045,7 +50073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:83">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -50059,10 +50087,10 @@
         <v>0</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G194" s="1">
         <v>0</v>
@@ -50296,7 +50324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:83">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -50310,10 +50338,10 @@
         <v>0</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G195" s="1">
         <v>0</v>
@@ -50547,7 +50575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:83">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -50561,10 +50589,10 @@
         <v>0</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G196" s="1">
         <v>0</v>
@@ -50798,7 +50826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:83">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -50812,10 +50840,10 @@
         <v>0</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G197" s="1">
         <v>0</v>
@@ -51049,7 +51077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:83">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -51063,10 +51091,10 @@
         <v>0</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G198" s="1">
         <v>0</v>
@@ -51300,7 +51328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:83">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -51314,10 +51342,10 @@
         <v>0</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G199" s="1">
         <v>0</v>
@@ -51551,7 +51579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:83">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -51565,10 +51593,10 @@
         <v>0</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G200" s="1">
         <v>0</v>
@@ -51802,7 +51830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:83">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -51816,10 +51844,10 @@
         <v>0</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G201" s="1">
         <v>0</v>
@@ -52053,7 +52081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:83">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -52067,10 +52095,10 @@
         <v>0</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G202" s="1">
         <v>0</v>
@@ -52304,7 +52332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:83">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -52318,10 +52346,10 @@
         <v>0</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="G203" s="1">
         <v>0</v>
@@ -52555,7 +52583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:83">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -52569,10 +52597,10 @@
         <v>0</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="G204" s="1">
         <v>0</v>
@@ -52806,7 +52834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:83">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -52820,10 +52848,10 @@
         <v>0</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="G205" s="1">
         <v>0</v>
@@ -53057,7 +53085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:83">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -53071,10 +53099,10 @@
         <v>0</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="G206" s="1">
         <v>0</v>
@@ -53308,7 +53336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:83">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -53322,10 +53350,10 @@
         <v>0</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="G207" s="1">
         <v>0</v>
@@ -53559,7 +53587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:83">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -53573,10 +53601,10 @@
         <v>0</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="G208" s="1">
         <v>0</v>
@@ -53810,7 +53838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:83">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -53824,10 +53852,10 @@
         <v>0</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="G209" s="1">
         <v>0</v>
@@ -54061,7 +54089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:83">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -54075,10 +54103,10 @@
         <v>0</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="G210" s="1">
         <v>0</v>
@@ -54312,7 +54340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:83">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -54326,10 +54354,10 @@
         <v>0</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="G211" s="1">
         <v>0</v>
@@ -54563,7 +54591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:83">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -54577,10 +54605,10 @@
         <v>0</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="G212" s="1">
         <v>0</v>
@@ -54814,7 +54842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:83">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -54828,10 +54856,10 @@
         <v>0</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="G213" s="1">
         <v>0</v>
@@ -55065,7 +55093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:83">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -55079,10 +55107,10 @@
         <v>0</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="G214" s="1">
         <v>0</v>
@@ -55316,7 +55344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:83">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -55330,10 +55358,10 @@
         <v>0</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="G215" s="1">
         <v>0</v>
@@ -55567,7 +55595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:83">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -55581,10 +55609,10 @@
         <v>0</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="G216" s="1">
         <v>0</v>
@@ -55818,7 +55846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:83">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -55832,10 +55860,10 @@
         <v>0</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="G217" s="1">
         <v>0</v>
@@ -56069,7 +56097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:83">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -56083,10 +56111,10 @@
         <v>0</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="G218" s="1">
         <v>0</v>
@@ -56320,7 +56348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:83">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -56334,10 +56362,10 @@
         <v>0</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="G219" s="1">
         <v>0</v>
@@ -56571,7 +56599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:83">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -56585,10 +56613,10 @@
         <v>0</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="G220" s="1">
         <v>0</v>
@@ -56822,7 +56850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:83">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -56836,10 +56864,10 @@
         <v>0</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="G221" s="1">
         <v>0</v>
@@ -57073,7 +57101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:83">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -57087,10 +57115,10 @@
         <v>0</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="G222" s="1">
         <v>0</v>
@@ -57324,7 +57352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:83">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -57338,10 +57366,10 @@
         <v>0</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="G223" s="1">
         <v>0</v>
@@ -57575,7 +57603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:83">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -57589,10 +57617,10 @@
         <v>0</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="G224" s="1">
         <v>0</v>
@@ -57826,7 +57854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:83">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -57840,10 +57868,10 @@
         <v>0</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="G225" s="1">
         <v>0</v>
@@ -58077,7 +58105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:83">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -58091,10 +58119,10 @@
         <v>0</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="G226" s="1">
         <v>0</v>
@@ -58328,7 +58356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:83">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -58342,10 +58370,10 @@
         <v>0</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="G227" s="1">
         <v>0</v>
@@ -58579,7 +58607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:83">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -58593,10 +58621,10 @@
         <v>0</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="G228" s="1">
         <v>0</v>
@@ -58830,7 +58858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:83">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -58844,10 +58872,10 @@
         <v>0</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="G229" s="1">
         <v>0</v>
@@ -59081,7 +59109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:83">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -59095,10 +59123,10 @@
         <v>0</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="G230" s="1">
         <v>0</v>
@@ -59332,7 +59360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:83">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -59346,10 +59374,10 @@
         <v>0</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="G231" s="1">
         <v>0</v>
@@ -59583,7 +59611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:83">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -59597,10 +59625,10 @@
         <v>0</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="G232" s="1">
         <v>0</v>
@@ -59834,7 +59862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:83">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -59848,10 +59876,10 @@
         <v>0</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="G233" s="1">
         <v>0</v>
@@ -60085,7 +60113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:83">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -60099,10 +60127,10 @@
         <v>0</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="G234" s="1">
         <v>0</v>
@@ -60336,7 +60364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:83">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -60350,10 +60378,10 @@
         <v>0</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="G235" s="1">
         <v>0</v>
@@ -60587,7 +60615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:83">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -60601,10 +60629,10 @@
         <v>0</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="G236" s="1">
         <v>0</v>
@@ -60838,7 +60866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:83">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -60852,10 +60880,10 @@
         <v>0</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="G237" s="1">
         <v>0</v>
@@ -61089,7 +61117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:83">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -61103,10 +61131,10 @@
         <v>0</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="G238" s="1">
         <v>0</v>
@@ -61340,7 +61368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:83">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -61354,10 +61382,10 @@
         <v>0</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="G239" s="1">
         <v>0</v>
@@ -61591,7 +61619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:83">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -61605,10 +61633,10 @@
         <v>0</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="G240" s="1">
         <v>0</v>
@@ -61842,7 +61870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:83">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -61856,10 +61884,10 @@
         <v>0</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="G241" s="1">
         <v>0</v>
@@ -62093,7 +62121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:83">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -62107,10 +62135,10 @@
         <v>0</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="G242" s="1">
         <v>0</v>
@@ -62344,7 +62372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:83">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -62358,10 +62386,10 @@
         <v>0</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G243" s="1">
         <v>0</v>
@@ -62595,7 +62623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:83">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -62609,10 +62637,10 @@
         <v>0</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G244" s="1">
         <v>0</v>
@@ -62846,7 +62874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:83">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -62860,10 +62888,10 @@
         <v>0</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G245" s="1">
         <v>0</v>
@@ -63097,7 +63125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:83">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -63111,10 +63139,10 @@
         <v>0</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G246" s="1">
         <v>0</v>
@@ -63348,7 +63376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:83">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -63362,10 +63390,10 @@
         <v>0</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G247" s="1">
         <v>0</v>
@@ -63599,7 +63627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:83">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -63613,10 +63641,10 @@
         <v>0</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G248" s="1">
         <v>0</v>
@@ -63850,7 +63878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:83">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -63864,10 +63892,10 @@
         <v>0</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G249" s="1">
         <v>0</v>
@@ -64101,7 +64129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:83">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -64115,10 +64143,10 @@
         <v>0</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G250" s="1">
         <v>0</v>
@@ -64352,7 +64380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:83">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -64366,10 +64394,10 @@
         <v>0</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G251" s="1">
         <v>0</v>
@@ -64603,7 +64631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:83">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -64617,10 +64645,10 @@
         <v>0</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G252" s="1">
         <v>0</v>
@@ -64854,7 +64882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:83">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -64868,10 +64896,10 @@
         <v>0</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G253" s="1">
         <v>0</v>
@@ -65105,7 +65133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:83">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -65119,10 +65147,10 @@
         <v>0</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G254" s="1">
         <v>0</v>
@@ -65356,7 +65384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:83">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -65370,10 +65398,10 @@
         <v>0</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G255" s="1">
         <v>0</v>
@@ -65607,7 +65635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:83">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -65621,10 +65649,10 @@
         <v>0</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G256" s="1">
         <v>0</v>
@@ -65858,7 +65886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:83">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -65872,10 +65900,10 @@
         <v>0</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G257" s="1">
         <v>0</v>
@@ -66109,7 +66137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:83">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -66123,10 +66151,10 @@
         <v>0</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G258" s="1">
         <v>0</v>
@@ -66360,7 +66388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:83">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -66374,10 +66402,10 @@
         <v>0</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G259" s="1">
         <v>0</v>
@@ -66611,7 +66639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:83">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -66625,10 +66653,10 @@
         <v>0</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G260" s="1">
         <v>0</v>
@@ -66862,7 +66890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:83">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -66876,10 +66904,10 @@
         <v>0</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G261" s="1">
         <v>0</v>
@@ -67113,7 +67141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:83">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -67127,10 +67155,10 @@
         <v>0</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G262" s="1">
         <v>0</v>
@@ -67364,7 +67392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:83">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -67378,10 +67406,10 @@
         <v>0</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G263" s="1">
         <v>0</v>
@@ -67615,7 +67643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:83">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -67629,10 +67657,10 @@
         <v>0</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G264" s="1">
         <v>0</v>
@@ -67866,7 +67894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:83">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -67880,10 +67908,10 @@
         <v>0</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G265" s="1">
         <v>0</v>
@@ -68117,7 +68145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:83">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -68131,10 +68159,10 @@
         <v>0</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G266" s="1">
         <v>0</v>
@@ -68368,7 +68396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:83">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -68382,10 +68410,10 @@
         <v>0</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G267" s="1">
         <v>0</v>
@@ -68619,7 +68647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:83">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -68633,10 +68661,10 @@
         <v>0</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G268" s="1">
         <v>0</v>
@@ -68870,7 +68898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:83">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -68884,10 +68912,10 @@
         <v>0</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G269" s="1">
         <v>0</v>
@@ -69121,7 +69149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:83">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -69135,10 +69163,10 @@
         <v>0</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G270" s="1">
         <v>0</v>
@@ -69372,7 +69400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:83">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -69386,10 +69414,10 @@
         <v>0</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G271" s="1">
         <v>0</v>
@@ -69623,7 +69651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:83">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -69637,10 +69665,10 @@
         <v>0</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G272" s="1">
         <v>0</v>
@@ -69874,7 +69902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:83">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -69888,10 +69916,10 @@
         <v>0</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G273" s="1">
         <v>0</v>
@@ -70125,7 +70153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:83">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -70139,10 +70167,10 @@
         <v>0</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G274" s="1">
         <v>0</v>
@@ -70376,7 +70404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:83">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -70390,10 +70418,10 @@
         <v>0</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G275" s="1">
         <v>0</v>
@@ -70627,7 +70655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:83">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -70641,10 +70669,10 @@
         <v>0</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G276" s="1">
         <v>0</v>
@@ -70878,7 +70906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:83">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -70892,10 +70920,10 @@
         <v>0</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G277" s="1">
         <v>0</v>
@@ -71129,7 +71157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:83">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -71143,10 +71171,10 @@
         <v>0</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G278" s="1">
         <v>0</v>
@@ -71380,7 +71408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:83">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -71394,10 +71422,10 @@
         <v>0</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G279" s="1">
         <v>0</v>
@@ -71631,7 +71659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:83">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -71645,10 +71673,10 @@
         <v>0</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G280" s="1">
         <v>0</v>
@@ -71882,7 +71910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:83">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -71896,10 +71924,10 @@
         <v>0</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G281" s="1">
         <v>0</v>
@@ -72133,7 +72161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:83">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -72147,10 +72175,10 @@
         <v>0</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G282" s="1">
         <v>0</v>
@@ -72384,7 +72412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:83">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -72398,10 +72426,10 @@
         <v>0</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G283" s="1">
         <v>0</v>
@@ -72635,7 +72663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:83">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -72649,10 +72677,10 @@
         <v>0</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G284" s="1">
         <v>0</v>
@@ -72886,7 +72914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:83">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -72900,10 +72928,10 @@
         <v>0</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G285" s="1">
         <v>0</v>
@@ -73137,7 +73165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:83">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -73151,10 +73179,10 @@
         <v>0</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G286" s="1">
         <v>0</v>
@@ -73388,7 +73416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:83">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -73402,10 +73430,10 @@
         <v>0</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G287" s="1">
         <v>0</v>
@@ -73639,7 +73667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:83">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -73653,10 +73681,10 @@
         <v>0</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G288" s="1">
         <v>0</v>
@@ -73890,7 +73918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:83">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -73904,10 +73932,10 @@
         <v>0</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G289" s="1">
         <v>0</v>
@@ -74141,7 +74169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:83">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -74155,10 +74183,10 @@
         <v>0</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G290" s="1">
         <v>0</v>
@@ -74392,7 +74420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:83">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -74406,10 +74434,10 @@
         <v>0</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G291" s="1">
         <v>0</v>
@@ -74643,7 +74671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:83">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -74657,10 +74685,10 @@
         <v>0</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G292" s="1">
         <v>0</v>
@@ -74894,7 +74922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:83">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -74908,10 +74936,10 @@
         <v>0</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G293" s="1">
         <v>0</v>
@@ -75145,7 +75173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:83">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -75159,10 +75187,10 @@
         <v>0</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G294" s="1">
         <v>0</v>
@@ -75396,7 +75424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:83">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -75410,10 +75438,10 @@
         <v>0</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G295" s="1">
         <v>0</v>
@@ -75647,7 +75675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:83">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -75661,10 +75689,10 @@
         <v>0</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G296" s="1">
         <v>0</v>
@@ -75898,7 +75926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:83">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -75912,10 +75940,10 @@
         <v>0</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G297" s="1">
         <v>0</v>
@@ -76149,7 +76177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:83">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -76163,10 +76191,10 @@
         <v>0</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G298" s="1">
         <v>0</v>
@@ -76400,7 +76428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:83">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -76414,10 +76442,10 @@
         <v>0</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G299" s="1">
         <v>0</v>
@@ -76651,7 +76679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:83">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -76665,10 +76693,10 @@
         <v>0</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G300" s="1">
         <v>0</v>
@@ -76902,7 +76930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:83">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -76916,10 +76944,10 @@
         <v>0</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G301" s="1">
         <v>0</v>
@@ -77153,7 +77181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:83">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -77167,10 +77195,10 @@
         <v>0</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="G302" s="1">
         <v>0</v>
@@ -77404,7 +77432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:83">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -77418,10 +77446,10 @@
         <v>0</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G303" s="1">
         <v>0</v>
@@ -77655,7 +77683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:83">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -77669,10 +77697,10 @@
         <v>0</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G304" s="1">
         <v>0</v>
@@ -77906,7 +77934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:83">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -77920,10 +77948,10 @@
         <v>0</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G305" s="1">
         <v>0</v>
@@ -78157,7 +78185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:83">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -78171,10 +78199,10 @@
         <v>0</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G306" s="1">
         <v>0</v>
@@ -78408,7 +78436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:83">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -78422,10 +78450,10 @@
         <v>0</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G307" s="1">
         <v>0</v>
@@ -78659,7 +78687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:83">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -78673,10 +78701,10 @@
         <v>0</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G308" s="1">
         <v>0</v>
@@ -78910,7 +78938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:83">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -78924,10 +78952,10 @@
         <v>0</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G309" s="1">
         <v>0</v>
@@ -79161,7 +79189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:83">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -79175,10 +79203,10 @@
         <v>0</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G310" s="1">
         <v>0</v>
@@ -79412,7 +79440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:83">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -79426,10 +79454,10 @@
         <v>0</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G311" s="1">
         <v>0</v>
@@ -79663,7 +79691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:83">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -79677,10 +79705,10 @@
         <v>0</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G312" s="1">
         <v>0</v>
@@ -79914,7 +79942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:83">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -79928,10 +79956,10 @@
         <v>0</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G313" s="1">
         <v>0</v>
@@ -80165,7 +80193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:83">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -80179,10 +80207,10 @@
         <v>0</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G314" s="1">
         <v>0</v>
@@ -80416,7 +80444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:83">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -80430,10 +80458,10 @@
         <v>0</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G315" s="1">
         <v>0</v>
@@ -80667,7 +80695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:83">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -80681,10 +80709,10 @@
         <v>0</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G316" s="1">
         <v>0</v>
@@ -80918,7 +80946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:83">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -80932,10 +80960,10 @@
         <v>0</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G317" s="1">
         <v>0</v>
@@ -81169,7 +81197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:83">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -81183,10 +81211,10 @@
         <v>0</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G318" s="1">
         <v>0</v>
@@ -81420,7 +81448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:83">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -81434,10 +81462,10 @@
         <v>0</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G319" s="1">
         <v>0</v>
@@ -81671,7 +81699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:83">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -81685,10 +81713,10 @@
         <v>0</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G320" s="1">
         <v>0</v>
@@ -81922,7 +81950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:83">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -81936,10 +81964,10 @@
         <v>0</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G321" s="1">
         <v>0</v>
@@ -82174,8 +82202,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/excel/JYX2人物.xlsx
+++ b/jyx2/excel/JYX2人物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13660"/>
+    <workbookView windowHeight="17860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="256">
   <si>
     <t>代号</t>
   </si>
@@ -72,7 +72,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>出招动画帧数</t>
@@ -82,7 +81,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -94,7 +92,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>出招动画帧数</t>
@@ -104,7 +101,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -116,7 +112,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>出招动画帧数</t>
@@ -126,7 +121,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -138,7 +132,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>出招动画帧数</t>
@@ -148,7 +141,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -160,7 +152,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>出招动画帧数</t>
@@ -170,7 +161,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -182,7 +172,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>出招动画延迟</t>
@@ -192,7 +181,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -204,7 +192,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>出招动画延迟</t>
@@ -214,7 +201,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -226,7 +212,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>出招动画延迟</t>
@@ -236,7 +221,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -248,7 +232,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>出招动画延迟</t>
@@ -258,7 +241,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -270,7 +252,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>出招动画延迟</t>
@@ -280,7 +261,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -292,7 +272,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>武功音效延迟</t>
@@ -302,7 +281,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -314,7 +292,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>武功音效延迟</t>
@@ -324,7 +301,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -336,7 +312,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>武功音效延迟</t>
@@ -346,7 +321,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -358,7 +332,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>武功音效延迟</t>
@@ -368,7 +341,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -380,7 +352,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>武功音效延迟</t>
@@ -390,7 +361,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -991,7 +961,7 @@
     <t>巨蟒</t>
   </si>
   <si>
-    <t>蟒牯朱蛤</t>
+    <t>莽牯朱蛤</t>
   </si>
   <si>
     <t>少林弟子</t>
@@ -1079,7 +1049,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1087,29 +1057,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1122,19 +1084,366 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1143,66 +1452,336 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="普通 3" xfId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="普通" xfId="7"/>
-    <cellStyle name="普通 2" xfId="8"/>
-    <cellStyle name="普通 4" xfId="9"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1252,71 +1831,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1530,26 +2109,25 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:CF321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BF15" sqref="BF15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="7" max="66" width="9" customWidth="1"/>
-    <col min="67" max="74" width="14.2166666666667" customWidth="1"/>
-    <col min="75" max="75" width="15.3333333333333" customWidth="1"/>
-    <col min="76" max="79" width="10.1083333333333" customWidth="1"/>
-    <col min="80" max="83" width="14.2166666666667" customWidth="1"/>
+    <col min="67" max="74" width="14.2181818181818" customWidth="1"/>
+    <col min="75" max="75" width="15.3363636363636" customWidth="1"/>
+    <col min="76" max="79" width="10.1090909090909" customWidth="1"/>
+    <col min="80" max="83" width="14.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84">
@@ -1604,49 +2182,49 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
@@ -1802,7 +2380,7 @@
       <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CF1" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2070,7 +2648,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -21459,7 +22037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:83">
+    <row r="80" ht="14.5" spans="1:83">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -21472,10 +22050,10 @@
       <c r="D80" s="1">
         <v>0</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>230</v>
       </c>
       <c r="G80" s="1">
